--- a/biology/Médecine/1639_en_santé_et_médecine/1639_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1639_en_santé_et_médecine/1639_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1639_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1639_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1639 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1639_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1639_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Canada
-Six infirmières venues de France (trois Augustines et trois Ursulines) s’établissent à l’Hôtel-Dieu de Québec fondé par la duchesse d’Aiguillon. Elles assurent la gestion de l’hôpital, le financement et l’organisation du travail au chevet des malades[1].
-France
-20 janvier : destruction de l'hôpital de Pontarlier par l'incendie du faubourg Saint-Pierre, lors du premier assaut des troupes de Saxe-Weimar (Guerre de Dix Ans)[2].
-Fondation de l'Hôpital d'Hospitalières de Saint Joseph de la Flèche à Baugé (Maine-et-Loire)[3].</t>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Six infirmières venues de France (trois Augustines et trois Ursulines) s’établissent à l’Hôtel-Dieu de Québec fondé par la duchesse d’Aiguillon. Elles assurent la gestion de l’hôpital, le financement et l’organisation du travail au chevet des malades.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1639_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1639_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Naissances</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12 avril : Martin Lister (mort en 1712), médecin et naturaliste britannique[4],[5].</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>20 janvier : destruction de l'hôpital de Pontarlier par l'incendie du faubourg Saint-Pierre, lors du premier assaut des troupes de Saxe-Weimar (Guerre de Dix Ans).
+Fondation de l'Hôpital d'Hospitalières de Saint Joseph de la Flèche à Baugé (Maine-et-Loire).</t>
         </is>
       </c>
     </row>
@@ -557,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1639_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1639_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +593,44 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Naissances</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12 avril : Martin Lister (mort en 1712), médecin et naturaliste britannique,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1639_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1639_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
